--- a/data/trans_orig/P64D$andando_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>92211</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75952</v>
+        <v>75710</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111417</v>
+        <v>110543</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2521622040355296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2077013483476159</v>
+        <v>0.2070384094291454</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3046842141683601</v>
+        <v>0.3022931802875747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>165</v>
@@ -762,19 +762,19 @@
         <v>102226</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88618</v>
+        <v>87835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116432</v>
+        <v>116265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3696804109704566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3204710889097268</v>
+        <v>0.3176369514936325</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4210533528977588</v>
+        <v>0.4204512785850572</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>258</v>
@@ -783,19 +783,19 @@
         <v>194437</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>171383</v>
+        <v>173836</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>217156</v>
+        <v>218657</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.302763978035494</v>
+        <v>0.3027639780354939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2668654220941355</v>
+        <v>0.2706852368764677</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3381413922673389</v>
+        <v>0.3404785934393795</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11961</v>
+        <v>11847</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008275295337519448</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03270848173597611</v>
+        <v>0.03239572677946239</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -849,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11631</v>
+        <v>12802</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.004712063431811527</v>
+        <v>0.004712063431811526</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01811099635912326</v>
+        <v>0.0199340305192011</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>12053</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6128</v>
+        <v>5773</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22146</v>
+        <v>21629</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03296130398566614</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01675861974553836</v>
+        <v>0.01578713214906438</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06056102563473095</v>
+        <v>0.05914584160983752</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -896,19 +896,19 @@
         <v>14339</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8874</v>
+        <v>8902</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21489</v>
+        <v>21710</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.05185425755136474</v>
+        <v>0.05185425755136475</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03209156951662625</v>
+        <v>0.03219397606086935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07771124231494968</v>
+        <v>0.07851059834311402</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -917,19 +917,19 @@
         <v>26392</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18483</v>
+        <v>18163</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38892</v>
+        <v>38442</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.04109635804629076</v>
+        <v>0.04109635804629075</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02878059400760058</v>
+        <v>0.02828260675957914</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0605600180777591</v>
+        <v>0.05985949129160685</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>3847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11481</v>
+        <v>11164</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01052082235938934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002036593601583153</v>
+        <v>0.00200975808878329</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03139555702501742</v>
+        <v>0.03052993773661944</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3176</v>
+        <v>3194</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002293236415591652</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01148611211843682</v>
+        <v>0.01155149957551622</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -988,19 +988,19 @@
         <v>4481</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1261</v>
+        <v>1311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11750</v>
+        <v>13889</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.006978133482900038</v>
+        <v>0.006978133482900037</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001963082291780597</v>
+        <v>0.002041388671952929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0182957984666366</v>
+        <v>0.02162703874105372</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>292273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275008</v>
+        <v>275433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>307737</v>
+        <v>308376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7992562839103038</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7520442574679647</v>
+        <v>0.7532050064662575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8415454553891777</v>
+        <v>0.8432925486099042</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>265</v>
@@ -1038,19 +1038,19 @@
         <v>183756</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>169711</v>
+        <v>170003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>196090</v>
+        <v>197037</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.664520197123973</v>
+        <v>0.6645201971239731</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6137287790269591</v>
+        <v>0.6147823401828453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7091218174989061</v>
+        <v>0.712545939117544</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>535</v>
@@ -1059,19 +1059,19 @@
         <v>476029</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>453298</v>
+        <v>452404</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>496663</v>
+        <v>496580</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7412407202710738</v>
+        <v>0.7412407202710737</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.705844449213085</v>
+        <v>0.7044523771003021</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7733695528618523</v>
+        <v>0.7732412846607516</v>
       </c>
     </row>
     <row r="9">
@@ -1088,19 +1088,19 @@
         <v>7174</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3097</v>
+        <v>3297</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13772</v>
+        <v>14514</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01961767629448306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008468020148496692</v>
+        <v>0.009014804545134911</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03766087592687268</v>
+        <v>0.03969136078172441</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1109,19 +1109,19 @@
         <v>6749</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3409</v>
+        <v>3363</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12114</v>
+        <v>11692</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02440651614459894</v>
+        <v>0.02440651614459895</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01232780796707685</v>
+        <v>0.01216324049286209</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0438088609973521</v>
+        <v>0.0422824112095562</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -1130,19 +1130,19 @@
         <v>13923</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8483</v>
+        <v>8352</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22828</v>
+        <v>21796</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02167968692362556</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01320920235268886</v>
+        <v>0.0130049616125252</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03554687699562024</v>
+        <v>0.03393931650372381</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>148852</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125851</v>
+        <v>125699</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174234</v>
+        <v>175684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2397529400142789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2027056669370408</v>
+        <v>0.2024601823625768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2806348590003276</v>
+        <v>0.2829709060247479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>247</v>
@@ -1184,19 +1184,19 @@
         <v>182927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164171</v>
+        <v>163738</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202819</v>
+        <v>201203</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.414501089560683</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3720002085386424</v>
+        <v>0.371019583850647</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4595755468465835</v>
+        <v>0.4559135232986505</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>371</v>
@@ -1205,19 +1205,19 @@
         <v>331779</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>298906</v>
+        <v>303562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>366251</v>
+        <v>365855</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3123583948814795</v>
+        <v>0.3123583948814796</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2814100705914283</v>
+        <v>0.2857929379114041</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3448129541108151</v>
+        <v>0.344439795309801</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>8388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3954</v>
+        <v>3644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15966</v>
+        <v>15835</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01351026958651561</v>
+        <v>0.0135102695865156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00636786293347538</v>
+        <v>0.005868848196585021</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0257162530012745</v>
+        <v>0.02550455728873256</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4524</v>
+        <v>4091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002672803960932176</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01025042355499853</v>
+        <v>0.009270152843395496</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1276,19 +1276,19 @@
         <v>9567</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4923</v>
+        <v>4746</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18997</v>
+        <v>18479</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.009007451540112276</v>
+        <v>0.009007451540112277</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00463451236835821</v>
+        <v>0.004468208397783547</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01788485538964941</v>
+        <v>0.01739749779453384</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>17912</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10115</v>
+        <v>9178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31176</v>
+        <v>30031</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02885038729897749</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01629196052578882</v>
+        <v>0.01478309546726884</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05021420976323052</v>
+        <v>0.04837020648808523</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1326,19 +1326,19 @@
         <v>14329</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9522</v>
+        <v>8804</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22455</v>
+        <v>22377</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03246868426843898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02157552495933151</v>
+        <v>0.01995035016691046</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05088233300480889</v>
+        <v>0.05070504815057798</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>32</v>
@@ -1347,19 +1347,19 @@
         <v>32241</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21463</v>
+        <v>22554</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>45748</v>
+        <v>45737</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03035373996963111</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02020676412858346</v>
+        <v>0.02123421509142278</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04307044043344858</v>
+        <v>0.04305998888460484</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>10297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4703</v>
+        <v>4545</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19611</v>
+        <v>18341</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01658491040077957</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007575480176475241</v>
+        <v>0.007321219108302675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03158625780990605</v>
+        <v>0.02954116384086115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5384</v>
+        <v>6997</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002491340497985191</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01220053074994338</v>
+        <v>0.01585443180662132</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1418,19 +1418,19 @@
         <v>11396</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5669</v>
+        <v>6026</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20781</v>
+        <v>20713</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01072922577034892</v>
+        <v>0.01072922577034893</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005337461183655036</v>
+        <v>0.005673463863322676</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01956437631975674</v>
+        <v>0.01950012790711284</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>466181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>439087</v>
+        <v>439043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>490223</v>
+        <v>491726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7508680015892896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7072288909593039</v>
+        <v>0.7071572548859585</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7895924688268448</v>
+        <v>0.7920129315106988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>382</v>
@@ -1468,19 +1468,19 @@
         <v>280604</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259394</v>
+        <v>261915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>297085</v>
+        <v>300053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6358293329852029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5877708298568323</v>
+        <v>0.5934830389708013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6731752757360366</v>
+        <v>0.6798999505305781</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>779</v>
@@ -1489,19 +1489,19 @@
         <v>746784</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>714597</v>
+        <v>713261</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>781975</v>
+        <v>773151</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7030710155668488</v>
+        <v>0.7030710155668489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6727685737486708</v>
+        <v>0.6715101108359653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7362025866251329</v>
+        <v>0.7278944423090683</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>41297</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28346</v>
+        <v>28657</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>57076</v>
+        <v>57993</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06651676363010317</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04565585936740742</v>
+        <v>0.04615763473304135</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09193088537601568</v>
+        <v>0.09340884474924972</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -1539,19 +1539,19 @@
         <v>35454</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25837</v>
+        <v>26341</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47873</v>
+        <v>46561</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08033602401159576</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0585455869390113</v>
+        <v>0.05968743398441814</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1084775375402921</v>
+        <v>0.1055037798376346</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>77</v>
@@ -1560,19 +1560,19 @@
         <v>76751</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>58981</v>
+        <v>58553</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>94990</v>
+        <v>93884</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07225847642380638</v>
+        <v>0.07225847642380641</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05552810401427538</v>
+        <v>0.0551255967030142</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08942967584775942</v>
+        <v>0.08838827280595503</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>60699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45973</v>
+        <v>45099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80263</v>
+        <v>79378</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1471888524095887</v>
+        <v>0.1471888524095886</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1114798347374844</v>
+        <v>0.1093592730756965</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1946286044522798</v>
+        <v>0.1924817821812441</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -1614,19 +1614,19 @@
         <v>89256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75494</v>
+        <v>74862</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104290</v>
+        <v>104357</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2687464663566076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2273089426887463</v>
+        <v>0.2254070637540141</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3140120487700387</v>
+        <v>0.3142130148437968</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>162</v>
@@ -1635,19 +1635,19 @@
         <v>149956</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128122</v>
+        <v>128611</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174938</v>
+        <v>172408</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2014146962097777</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1720891592696369</v>
+        <v>0.1727457601581083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2349703125546503</v>
+        <v>0.2315720716958194</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>10158</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3206</v>
+        <v>3329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24689</v>
+        <v>31834</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02463214726798443</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00777338160197813</v>
+        <v>0.00807167124743372</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05986816924205616</v>
+        <v>0.07719276063378157</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1685,19 +1685,19 @@
         <v>5142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2086</v>
+        <v>1695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10344</v>
+        <v>10640</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01548340277745242</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006279999006204731</v>
+        <v>0.005103799164417094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03114458169374501</v>
+        <v>0.03203658404823618</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1706,19 +1706,19 @@
         <v>15300</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7098</v>
+        <v>7703</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29435</v>
+        <v>32153</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02055096819903978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009534162120367244</v>
+        <v>0.01034645967062639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03953614104407323</v>
+        <v>0.04318661975435629</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>12951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6485</v>
+        <v>6818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22179</v>
+        <v>22487</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.03140503204447699</v>
+        <v>0.03140503204447698</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01572530110363429</v>
+        <v>0.01653346986982597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05378176861035718</v>
+        <v>0.05452856472003016</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -1756,19 +1756,19 @@
         <v>8867</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4430</v>
+        <v>5075</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16150</v>
+        <v>18060</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.02669765571159852</v>
+        <v>0.02669765571159853</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01333816339258103</v>
+        <v>0.01528070083530548</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04862537159769605</v>
+        <v>0.05437683336939795</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -1777,19 +1777,19 @@
         <v>21818</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13018</v>
+        <v>13457</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33255</v>
+        <v>32909</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02930511048920008</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01748520047669608</v>
+        <v>0.01807457482994003</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04466714581977357</v>
+        <v>0.04420178163960593</v>
       </c>
     </row>
     <row r="19">
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8435</v>
+        <v>8186</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.005482184126729539</v>
+        <v>0.005482184126729538</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02045429722662143</v>
+        <v>0.01985098578132581</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1827,19 +1827,19 @@
         <v>3626</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9058</v>
+        <v>9602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01091812242460887</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00224277481358699</v>
+        <v>0.0023121866790827</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02727256432320687</v>
+        <v>0.02890974416397808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1848,19 +1848,19 @@
         <v>5887</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2181</v>
+        <v>2449</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12935</v>
+        <v>13918</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007907111134401349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002930070977123547</v>
+        <v>0.003289322130698652</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01737430164770567</v>
+        <v>0.01869382397156357</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>331496</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>309841</v>
+        <v>308770</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>350317</v>
+        <v>350782</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8038396920637787</v>
+        <v>0.8038396920637785</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7513292223977441</v>
+        <v>0.7487307751818296</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8494787854224137</v>
+        <v>0.8506045767325908</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>299</v>
@@ -1898,19 +1898,19 @@
         <v>236981</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>222103</v>
+        <v>220664</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>251276</v>
+        <v>250229</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7135380795550792</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6687415906886929</v>
+        <v>0.6644071629295517</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.756581028216665</v>
+        <v>0.7534268979365953</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>560</v>
@@ -1919,19 +1919,19 @@
         <v>568477</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>540481</v>
+        <v>544411</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>591375</v>
+        <v>593042</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7635568913752413</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.725953892896638</v>
+        <v>0.7312323623218167</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7943117626700695</v>
+        <v>0.7965513897133382</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>22800</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13912</v>
+        <v>13835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36822</v>
+        <v>39000</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05528734349009905</v>
+        <v>0.05528734349009903</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03373534000303418</v>
+        <v>0.03354762041381179</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0892900214794754</v>
+        <v>0.09456928195729798</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -1969,19 +1969,19 @@
         <v>34851</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24659</v>
+        <v>25549</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>45201</v>
+        <v>46284</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1049340301887203</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07424621989786036</v>
+        <v>0.07692800095037336</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.136097801956575</v>
+        <v>0.1393578547372065</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -1990,19 +1990,19 @@
         <v>57651</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>43068</v>
+        <v>41922</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>76198</v>
+        <v>75175</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07743431882715796</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05784686822760145</v>
+        <v>0.05630865381469783</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1023459077354391</v>
+        <v>0.1009718485917758</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>126892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108166</v>
+        <v>108033</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>149995</v>
+        <v>148791</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2491669843376107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2123965973661179</v>
+        <v>0.2121342382721703</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2945328748852426</v>
+        <v>0.292168557781452</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>232</v>
@@ -2044,19 +2044,19 @@
         <v>169281</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151490</v>
+        <v>151765</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>187272</v>
+        <v>187480</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3833223449414659</v>
+        <v>0.383322344941466</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3430367675131553</v>
+        <v>0.3436601763933987</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4240618617537699</v>
+        <v>0.4245342757503457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>351</v>
@@ -2065,19 +2065,19 @@
         <v>296172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>267424</v>
+        <v>269577</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>322708</v>
+        <v>324918</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3114723828011281</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.281238771557552</v>
+        <v>0.2835029297264042</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.339378704734819</v>
+        <v>0.3417033437374349</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>16450</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8765</v>
+        <v>9007</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28644</v>
+        <v>27814</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03230168278347538</v>
+        <v>0.03230168278347539</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01721113603543682</v>
+        <v>0.01768615821105457</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05624564701304812</v>
+        <v>0.05461601276201089</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2115,19 +2115,19 @@
         <v>10246</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5634</v>
+        <v>5653</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17417</v>
+        <v>17608</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02320163392067403</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01275854942990641</v>
+        <v>0.01280115264000064</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0394394683819374</v>
+        <v>0.03987189921231009</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -2136,19 +2136,19 @@
         <v>26696</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17476</v>
+        <v>17568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40791</v>
+        <v>40327</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02807537257207394</v>
+        <v>0.02807537257207393</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01837925412518588</v>
+        <v>0.01847608160888316</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0428978587593574</v>
+        <v>0.04241078298210065</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>41621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28717</v>
+        <v>29003</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57513</v>
+        <v>57737</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08172759455066025</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05638902398034924</v>
+        <v>0.05695007026174765</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1129329041487717</v>
+        <v>0.1133740373460822</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2186,19 +2186,19 @@
         <v>24862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17753</v>
+        <v>17357</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36015</v>
+        <v>34863</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05629804420787941</v>
+        <v>0.05629804420787942</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04020107230161715</v>
+        <v>0.03930456900123676</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0815525737828728</v>
+        <v>0.07894522525100992</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -2207,19 +2207,19 @@
         <v>66483</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51775</v>
+        <v>50813</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>85729</v>
+        <v>84379</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06991741969276863</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05444999997102237</v>
+        <v>0.05343803911043024</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09015772165196287</v>
+        <v>0.08873817040068266</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>4312</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1047</v>
+        <v>1133</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10065</v>
+        <v>10341</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008466252110109847</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002055019028709189</v>
+        <v>0.002224175668256116</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01976369569378876</v>
+        <v>0.02030486669318166</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2257,19 +2257,19 @@
         <v>7585</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2785</v>
+        <v>2970</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16932</v>
+        <v>17893</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01717639570997542</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006305580166306119</v>
+        <v>0.006724959904145771</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03834224786814729</v>
+        <v>0.04051822624644913</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2278,19 +2278,19 @@
         <v>11897</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5564</v>
+        <v>5137</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21237</v>
+        <v>21541</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01251147971205843</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005851004783377544</v>
+        <v>0.005402885738632962</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02233404386401076</v>
+        <v>0.02265371827336145</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>308809</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>283552</v>
+        <v>283370</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>331591</v>
+        <v>332051</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6063819520702038</v>
+        <v>0.6063819520702037</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.556786211360486</v>
+        <v>0.5564297232535662</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6511164317879888</v>
+        <v>0.6520204779911222</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>297</v>
@@ -2328,19 +2328,19 @@
         <v>211457</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>193310</v>
+        <v>193593</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>231563</v>
+        <v>230658</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4788269364486624</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4377346138338954</v>
+        <v>0.4383752238636718</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5243553170026608</v>
+        <v>0.5223065278799375</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>592</v>
@@ -2349,19 +2349,19 @@
         <v>520265</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>492447</v>
+        <v>492012</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>553332</v>
+        <v>553426</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5471419333445416</v>
+        <v>0.5471419333445418</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5178870042564957</v>
+        <v>0.5174292526783379</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5819169457376893</v>
+        <v>0.5820160446866639</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>86473</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>68914</v>
+        <v>70343</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>106919</v>
+        <v>108550</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1697997679712414</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1353197441653</v>
+        <v>0.1381256249563735</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.209947681578977</v>
+        <v>0.2131497175418582</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>112</v>
@@ -2399,19 +2399,19 @@
         <v>93404</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>79269</v>
+        <v>77575</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>109983</v>
+        <v>109280</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2115064872066862</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1794981161287429</v>
+        <v>0.1756617380801365</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2490475882667539</v>
+        <v>0.2474550342157677</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>186</v>
@@ -2420,19 +2420,19 @@
         <v>179877</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>158516</v>
+        <v>154363</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>207030</v>
+        <v>204120</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1891695027986379</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1667050025628533</v>
+        <v>0.1623371546389939</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2177248987703996</v>
+        <v>0.2146644539461931</v>
       </c>
     </row>
     <row r="28">
@@ -2453,19 +2453,19 @@
         <v>428654</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>392180</v>
+        <v>388787</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>475265</v>
+        <v>472973</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2246388632526012</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2055243117350834</v>
+        <v>0.2037463681294059</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2490656408256705</v>
+        <v>0.24786466973608</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>756</v>
@@ -2474,19 +2474,19 @@
         <v>543690</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>510404</v>
+        <v>507902</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>577167</v>
+        <v>576102</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3645063182706986</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3421903674947679</v>
+        <v>0.3405130677230654</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3869504279306096</v>
+        <v>0.3862363767893331</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1142</v>
@@ -2495,19 +2495,19 @@
         <v>972344</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>924435</v>
+        <v>921545</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1026787</v>
+        <v>1026680</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2860027964840825</v>
+        <v>0.2860027964840826</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2719109462146191</v>
+        <v>0.2710608481439207</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3020165496128742</v>
+        <v>0.3019849719331005</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>38022</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26007</v>
+        <v>24739</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>56730</v>
+        <v>57932</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01992578724657576</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01362897283458133</v>
+        <v>0.01296473296099605</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02972965084137843</v>
+        <v>0.03035942705031936</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -2545,19 +2545,19 @@
         <v>16568</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10613</v>
+        <v>10634</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24974</v>
+        <v>24750</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01110774749341333</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007115570315910978</v>
+        <v>0.007129485185654203</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01674358295999043</v>
+        <v>0.01659293274163633</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>49</v>
@@ -2566,19 +2566,19 @@
         <v>54590</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>38419</v>
+        <v>39454</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>75743</v>
+        <v>76423</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01605705593538122</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01130035394062965</v>
+        <v>0.01160502882632028</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02227899425208083</v>
+        <v>0.02247900702577365</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>84537</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>64740</v>
+        <v>66094</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>106167</v>
+        <v>106864</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04430233687963146</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03392743544253445</v>
+        <v>0.03463674093350086</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05563770970534094</v>
+        <v>0.05600292724096193</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>83</v>
@@ -2616,19 +2616,19 @@
         <v>62397</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>49463</v>
+        <v>49893</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>77943</v>
+        <v>78539</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04183278929682718</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03316177841410457</v>
+        <v>0.03345011247294787</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05225509522088002</v>
+        <v>0.05265460849604842</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>149</v>
@@ -2637,19 +2637,19 @@
         <v>146934</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>124054</v>
+        <v>121687</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>173459</v>
+        <v>173866</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04321887430455593</v>
+        <v>0.04321887430455594</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03648901087498931</v>
+        <v>0.03579282339505137</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0510207694452686</v>
+        <v>0.05114058933342541</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>20716</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12318</v>
+        <v>12830</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31208</v>
+        <v>32583</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01085659136771679</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006455447029263465</v>
+        <v>0.006723814262110123</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0163549431985714</v>
+        <v>0.01707535210493391</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2687,19 +2687,19 @@
         <v>12945</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6475</v>
+        <v>6898</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23311</v>
+        <v>25732</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008678778872892499</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004341245494498652</v>
+        <v>0.004624895301116283</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0156282319570901</v>
+        <v>0.01725153834037192</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>30</v>
@@ -2708,19 +2708,19 @@
         <v>33662</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22865</v>
+        <v>22815</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>46776</v>
+        <v>48108</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009901121487280401</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006725425552698428</v>
+        <v>0.00671084512439418</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01375845674012851</v>
+        <v>0.01415036658896434</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>1398758</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1354620</v>
+        <v>1350716</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1441383</v>
+        <v>1441380</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7330281230803117</v>
+        <v>0.733028123080312</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7098972840323038</v>
+        <v>0.7078510502894906</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7553659590487641</v>
+        <v>0.755364499758494</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1243</v>
@@ -2758,19 +2758,19 @@
         <v>912798</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>879602</v>
+        <v>878135</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>947525</v>
+        <v>946430</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.6119673632375902</v>
+        <v>0.61196736323759</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5897120341572002</v>
+        <v>0.588728593235382</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6352494165956197</v>
+        <v>0.6345153015326277</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2466</v>
@@ -2779,19 +2779,19 @@
         <v>2311556</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2258475</v>
+        <v>2256810</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2366875</v>
+        <v>2369023</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.679915235718631</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6643020044436981</v>
+        <v>0.6638124359568103</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6961865109463926</v>
+        <v>0.6968185156096185</v>
       </c>
     </row>
     <row r="33">
@@ -2808,19 +2808,19 @@
         <v>157744</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>130952</v>
+        <v>132244</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>185559</v>
+        <v>185082</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08266680517370262</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06862647780725617</v>
+        <v>0.06930309749398579</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0972435650658646</v>
+        <v>0.096993283964197</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>204</v>
@@ -2829,19 +2829,19 @@
         <v>170458</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>149545</v>
+        <v>146689</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>196291</v>
+        <v>193290</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1142801098429939</v>
+        <v>0.114280109842994</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1002592643976408</v>
+        <v>0.09834485033220097</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1315996809280773</v>
+        <v>0.1295877529929924</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>335</v>
@@ -2850,19 +2850,19 @@
         <v>328202</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>295117</v>
+        <v>296679</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>366900</v>
+        <v>367483</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.09653648426882781</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08680504770128712</v>
+        <v>0.08726450139682146</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.107918916403278</v>
+        <v>0.1080904569527336</v>
       </c>
     </row>
     <row r="34">
